--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MARYLAND_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MARYLAND_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="4">
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="5">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="7">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="15">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="17">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="18">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="22">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="27">
@@ -734,20 +734,20 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="29">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="30">
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="31">
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="34">
@@ -825,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C35">
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="40">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="44">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="48">
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="50">
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>0.009909909909909909</v>
+        <v>0.009909909909909908</v>
       </c>
     </row>
     <row r="51">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="52">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="53">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="54">
@@ -1101,7 +1101,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1158,14 +1158,14 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="60">
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>0.009009009009009009</v>
+        <v>0.009009009009009007</v>
       </c>
     </row>
     <row r="61">
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>0.009009009009009009</v>
+        <v>0.009009009009009007</v>
       </c>
     </row>
     <row r="62">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="72">
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="73">
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="74">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="75">
@@ -1378,18 +1378,18 @@
         <v>11</v>
       </c>
       <c r="D75">
-        <v>0.009909909909909909</v>
+        <v>0.009909909909909908</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C76">
@@ -1402,14 +1402,14 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="78">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="79">
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="80">
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="82">
@@ -1480,7 +1480,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C83">
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="85">
@@ -1513,20 +1513,20 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="90">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="91">
@@ -1604,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C93">
@@ -1643,13 +1643,13 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C96">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="99">
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="100">
@@ -1708,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C101">
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="103">
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="104">
@@ -1766,7 +1766,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C105">
@@ -1805,7 +1805,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="109">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C111">
@@ -1862,14 +1862,14 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="113">
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="114">
@@ -1895,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="D114">
-        <v>0.009909909909909909</v>
+        <v>0.009909909909909908</v>
       </c>
     </row>
     <row r="115">
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C117">
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="119">
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="121">
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="D121">
-        <v>0.009909909909909909</v>
+        <v>0.009909909909909908</v>
       </c>
     </row>
     <row r="122">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="125">
@@ -2044,14 +2044,14 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="127">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C129">
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="131">
@@ -2116,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C132">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="134">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C135">
@@ -2191,39 +2191,39 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C139">
@@ -2249,7 +2249,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C141">
@@ -2262,7 +2262,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C142">
@@ -2275,14 +2275,14 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="144">
@@ -2327,14 +2327,14 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="148">
@@ -2347,20 +2347,20 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="150">
@@ -2373,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C151">
@@ -2399,13 +2399,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C153">
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="155">
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="157">
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="158">
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="162">
@@ -2529,20 +2529,20 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="164">
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="166">
@@ -2581,26 +2581,26 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C168">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="171">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="172">
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="174">
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="176">
@@ -2729,13 +2729,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C178">
@@ -2787,33 +2787,33 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C184">
@@ -2839,14 +2839,14 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="187">
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="188">
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="189">
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="190">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="191">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="192">
@@ -2924,13 +2924,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C193">
@@ -2950,13 +2950,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C195">
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="197">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="199">
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="200">
@@ -3033,13 +3033,13 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C201">
@@ -3072,20 +3072,20 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="205">
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="208">
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="209">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="210">
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="212">
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="214">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="216">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="218">
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="222">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="223">
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="226">
@@ -3472,13 +3472,13 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C234">
@@ -3530,7 +3530,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C238">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="241">
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="242">
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="244">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="245">
@@ -3644,14 +3644,14 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="247">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="249">
@@ -3701,7 +3701,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C250">
@@ -3714,33 +3714,33 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C253">
@@ -3753,27 +3753,27 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="256">
@@ -3786,13 +3786,13 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3805,33 +3805,33 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C260">
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="262">
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="264">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="265">
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="267">
@@ -3929,20 +3929,20 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="269">
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="270">
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="271">
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="273">
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="274">
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="276">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="277">
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="279">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="280">
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="281">
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="282">
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="284">
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="287">
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="290">
@@ -4234,7 +4234,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C291">
@@ -4260,7 +4260,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C293">
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="295">
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="296">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="297">
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="300">
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="302">
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="303">
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="304">
@@ -4410,7 +4410,7 @@
         <v>10</v>
       </c>
       <c r="D304">
-        <v>0.009009009009009009</v>
+        <v>0.009009009009009007</v>
       </c>
     </row>
     <row r="305">
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="306">
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="307">
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="308">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="309">
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="310">
@@ -4494,7 +4494,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C311">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="316">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="317">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="318">
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="319">
@@ -4623,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="321">
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="323">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="324">
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="326">
@@ -4707,14 +4707,14 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="328">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="329">
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="331">
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="333">
@@ -4805,20 +4805,20 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="336">
@@ -4831,13 +4831,13 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C337">
@@ -4870,20 +4870,20 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="341">
@@ -4909,20 +4909,20 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C343">
         <v>1</v>
       </c>
       <c r="D343">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="344">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="345">
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="346">
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="349">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="351">
@@ -5032,14 +5032,14 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="D352">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="353">
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="355">
@@ -5110,7 +5110,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C358">
@@ -5123,7 +5123,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C359">
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="D360">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="361">
@@ -5156,13 +5156,13 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C362">
@@ -5175,7 +5175,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C363">
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="D364">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="365">
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="D365">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="366">
@@ -5227,14 +5227,14 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C367">
         <v>1</v>
       </c>
       <c r="D367">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="368">
@@ -5260,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="D369">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="370">
@@ -5317,26 +5317,26 @@
         <v>1</v>
       </c>
       <c r="D373">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
       <c r="D374">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C375">
@@ -5362,14 +5362,14 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C377">
         <v>1</v>
       </c>
       <c r="D377">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="378">
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="380">
@@ -5419,14 +5419,14 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
       <c r="D381">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="382">
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="D382">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="383">
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="D384">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="385">
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="387">
@@ -5517,46 +5517,46 @@
         <v>1</v>
       </c>
       <c r="D388">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C389">
         <v>1</v>
       </c>
       <c r="D389">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
       <c r="D390">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
       <c r="D391">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="392">
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="393">
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="394">
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="397">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="D399">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="400">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="D400">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="401">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="404">
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="405">
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="D406">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="407">
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="D408">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="409">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="410">
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="411">
@@ -5849,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="413">
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="414">
@@ -5912,14 +5912,14 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C417">
         <v>1</v>
       </c>
       <c r="D417">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="418">
@@ -5938,14 +5938,14 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
       <c r="D419">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="420">
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="D420">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="421">
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="D421">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="422">
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="D423">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="424">
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="D424">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="425">
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="428">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="D428">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="429">
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="D429">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="430">
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="432">
@@ -6125,14 +6125,14 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C433">
         <v>1</v>
       </c>
       <c r="D433">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="434">
@@ -6177,7 +6177,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C437">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="D438">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="439">
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="D439">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="440">
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="D440">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="441">
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="443">
@@ -6262,20 +6262,20 @@
         <v>1</v>
       </c>
       <c r="D443">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C444">
         <v>1</v>
       </c>
       <c r="D444">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="445">
@@ -6288,20 +6288,20 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="447">
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="D448">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="449">
@@ -6340,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="D449">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="450">
@@ -6359,7 +6359,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C451">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="453">
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="D454">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="455">
@@ -6431,20 +6431,20 @@
         <v>1</v>
       </c>
       <c r="D456">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C457">
         <v>1</v>
       </c>
       <c r="D457">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="458">
@@ -6457,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="D458">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="459">
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="D460">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="461">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="D462">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="463">
@@ -6522,20 +6522,20 @@
         <v>1</v>
       </c>
       <c r="D463">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C464">
         <v>1</v>
       </c>
       <c r="D464">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="465">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="466">
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="467">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="468">
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="469">
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="470">
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="D470">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="471">
@@ -6639,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="D472">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C473">
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="D474">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="475">
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="476">
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="478">
@@ -6730,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="D479">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="480">
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="481">
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="D482">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="483">
@@ -6782,20 +6782,20 @@
         <v>1</v>
       </c>
       <c r="D483">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C484">
         <v>1</v>
       </c>
       <c r="D484">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="485">
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="D486">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="487">
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="D487">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="488">
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="D489">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="490">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="491">
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="D491">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="492">
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="D492">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="493">
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="494">
@@ -6935,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="D494">
-        <v>0.0009009009009009009</v>
+        <v>0.0009009009009009008</v>
       </c>
     </row>
     <row r="495">
@@ -6962,41 +6962,6 @@
       </c>
       <c r="D496">
         <v>1</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MARYLAND_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MARYLAND_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>El Llano</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Catazajá</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Suchiapa</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -972,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1143,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1156,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1169,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1182,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1221,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1413,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1426,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Capulhuac</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Huixquilucan</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1699,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tepetlaoxtoc</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>León</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2221,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2234,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2247,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2260,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2273,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -2286,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -2299,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -2312,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2325,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2338,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -2351,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -2364,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2377,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2390,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2403,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -2416,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2429,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2442,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2455,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2468,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -2481,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2494,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -2507,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2520,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2533,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2546,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2559,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2681,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Calnali</t>
@@ -2694,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -2707,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -2720,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Huazalingo</t>
@@ -2733,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -2746,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -2759,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2772,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -2785,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -2798,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -2811,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2824,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -2837,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -2850,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -2863,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -2876,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -2889,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tepetitlán</t>
@@ -2902,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -2915,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -2928,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2941,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Xochicoatlán</t>
@@ -2954,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -2967,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -2980,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3011,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -3024,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -3037,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3050,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3063,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3076,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -3089,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -3102,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3115,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -3128,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -3141,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -3154,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3185,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -3198,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -3211,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -3224,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -3237,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -3250,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -3263,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3276,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -3289,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3302,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -3315,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3328,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3341,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -3354,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3367,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3380,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3411,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3424,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3437,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3450,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3463,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -3476,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -3489,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -3502,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3515,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -3528,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Zacualpan De Amilpas</t>
@@ -3541,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3572,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -3585,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3616,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>General Zaragoza</t>
@@ -3629,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -3642,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -3655,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3686,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Ayotzintepec</t>
@@ -3699,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -3712,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -3725,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -3738,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -3751,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -3764,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -3777,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Natividad</t>
@@ -3790,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3803,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -3816,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -3829,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Putla Villa De Guerero</t>
@@ -3842,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -3855,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -3868,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -3881,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -3894,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Andrés Huaxpaltepec</t>
@@ -3907,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Andrés Solaga</t>
@@ -3920,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -3933,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -3946,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -3959,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>San Juan Bautista Coixtlahuaca</t>
@@ -3972,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -3985,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3998,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>San Juan Lachigalla</t>
@@ -4011,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -4024,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -4037,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -4050,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -4063,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -4076,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>San Luis Amatlán</t>
@@ -4089,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>San Martín Itunyoso</t>
@@ -4102,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -4115,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Miguel Aloápam</t>
@@ -4128,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -4141,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>San Miguel Tlacamama</t>
@@ -4154,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>San Miguel Tlacotepec</t>
@@ -4167,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>San Nicolás</t>
@@ -4180,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>San Nicolás Hidalgo</t>
@@ -4193,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -4206,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -4219,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -4232,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -4245,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Santa Inés Yatzeche</t>
@@ -4258,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Santa María Del Tule</t>
@@ -4271,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Santa María Ecatepec</t>
@@ -4284,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -4297,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -4310,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -4323,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Santa María Lachixío</t>
@@ -4336,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Santa María Mixtequilla</t>
@@ -4349,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -4362,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Santiago Apoala</t>
@@ -4375,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -4388,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -4401,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -4414,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -4427,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4440,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Santiago Niltepec</t>
@@ -4453,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -4466,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Santo Domingo Nuxaá</t>
@@ -4479,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -4492,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tanetze De Zaragoza</t>
@@ -4505,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4536,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -4549,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -4562,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -4575,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Ahuatlán</t>
@@ -4588,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -4601,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4614,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -4627,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -4640,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -4653,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4666,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -4679,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -4692,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -4705,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -4718,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -4731,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4744,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -4757,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -4770,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -4783,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4796,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -4809,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerero</t>
@@ -4822,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -4835,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4848,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -4861,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -4874,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -4887,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -4900,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -4913,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -4926,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -4939,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -4952,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4965,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -4978,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -4991,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -5004,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5017,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -5030,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -5043,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -5056,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -5069,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -5082,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5095,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -5108,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -5160,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -5173,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -5186,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -5199,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -5212,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -5225,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5308,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5321,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -5334,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5347,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -5360,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -5373,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5404,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -5417,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -5430,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -5443,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -5456,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -5469,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5482,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -5495,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -5508,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -5521,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Tanquián De Escobedo</t>
@@ -5534,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -5547,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -5560,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -5573,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -5586,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5617,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -5630,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -5643,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5674,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -5687,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5718,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -5731,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -5744,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -5757,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -5770,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5801,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Antiguo Morelos</t>
@@ -5814,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -5827,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -5840,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -5853,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -5866,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -5879,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5910,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -5923,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -5936,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -5949,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Santa Cruz Tlaxcala</t>
@@ -5962,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -5975,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -5988,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Tocatlán</t>
@@ -6001,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -6014,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6045,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Amatitlán</t>
@@ -6058,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -6071,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -6084,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -6097,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -6110,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -6123,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -6136,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -6149,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -6162,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -6175,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -6188,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -6201,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -6214,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>El Higo</t>
@@ -6227,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -6240,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -6253,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -6266,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -6279,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -6292,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -6305,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -6318,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -6331,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -6344,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -6357,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -6370,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Miahuatlán</t>
@@ -6383,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -6396,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -6409,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6422,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6435,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -6448,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -6461,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -6474,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -6487,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -6500,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -6513,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -6526,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -6539,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -6552,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -6565,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -6578,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tenampa</t>
@@ -6591,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -6604,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6617,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -6630,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -6643,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Tlacotepec De Mejía</t>
@@ -6656,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6669,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Tonayán</t>
@@ -6682,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -6695,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6708,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -6721,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -6734,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Xico</t>
@@ -6747,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -6760,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -6773,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -6786,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Zontecomatlán De López Y Fuentes</t>
@@ -6799,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6830,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6861,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -6874,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -6887,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -6900,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -6913,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Villa García</t>
@@ -6926,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -6939,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Total</t>
